--- a/Power_Board/Power_Board_Rev_A1_BOM.xlsx
+++ b/Power_Board/Power_Board_Rev_A1_BOM.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\ExMachina\repos\eisla-electronics\WDY\Power_Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\ExMachina\repos\WDY-electronics\Power_Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="PdG" sheetId="2" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="WDY_Power_Board_order" localSheetId="1">Feuil1!$A$1:$I$23</definedName>
+    <definedName name="WDY_Power_Board_order" localSheetId="1">BOM!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
   <si>
     <t>Quantity</t>
   </si>
@@ -113,12 +113,6 @@
     <t>23T7233</t>
   </si>
   <si>
-    <t>MCMT21N220F250CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTICOMP - MCMT21N220F250CT - Multilayer Ceramic Capacitor, MCCA Series, 22 pF,   1%, C0G / NP0, 25 V, 0805 [2012 Metric] </t>
-  </si>
-  <si>
     <t>STPS3L40UF</t>
   </si>
   <si>
@@ -357,6 +351,15 @@
   </si>
   <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>MC0805X226M6R3CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTICOMP - MCMT21N220F250CT - Multilayer Ceramic Capacitor, MLCC Series, 22 uF,  20%, XR, 6.8 V, 0805 [2012 Metric] </t>
+  </si>
+  <si>
+    <t>MCMR06X3162FTL</t>
   </si>
 </sst>
 </file>
@@ -811,51 +814,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="4">
         <f ca="1">TODAY()</f>
-        <v>42738</v>
+        <v>42746</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -868,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +987,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="G4">
         <v>1149</v>
@@ -989,7 +996,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -997,16 +1004,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>6563</v>
@@ -1015,7 +1022,7 @@
         <v>0.214</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1023,19 +1030,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
       <c r="G6">
         <v>684</v>
@@ -1044,7 +1051,7 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1052,13 +1059,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
       </c>
       <c r="F7">
         <v>3557</v>
@@ -1070,7 +1077,7 @@
         <v>0.112</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1078,13 +1085,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1092,16 +1099,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>2007041</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>283</v>
@@ -1110,7 +1117,7 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1118,13 +1125,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1132,13 +1139,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
       </c>
       <c r="F11">
         <v>74477410</v>
@@ -1150,7 +1157,7 @@
         <v>1.32</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1158,13 +1165,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>744774115</v>
@@ -1176,7 +1183,7 @@
         <v>1.32</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1184,16 +1191,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1202,7 +1209,7 @@
         <v>0.189</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1210,16 +1217,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
         <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1228,7 +1235,7 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1236,19 +1243,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="G15">
         <v>20297</v>
@@ -1257,7 +1264,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1265,16 +1272,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
       </c>
       <c r="G16">
         <v>203820</v>
@@ -1283,7 +1290,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1291,16 +1298,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
       </c>
       <c r="G17">
         <v>4499</v>
@@ -1309,7 +1316,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1317,16 +1324,16 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
       </c>
       <c r="G18">
         <v>27199</v>
@@ -1335,7 +1342,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1343,19 +1350,19 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
       </c>
       <c r="G19">
         <v>20297</v>
@@ -1364,7 +1371,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1372,13 +1379,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1386,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1400,16 +1407,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" t="s">
-        <v>88</v>
       </c>
       <c r="G22">
         <v>88</v>
@@ -1418,7 +1425,7 @@
         <v>5.16</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1426,16 +1433,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
         <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" t="s">
-        <v>92</v>
       </c>
       <c r="F23">
         <v>1757242</v>
@@ -1447,10 +1454,11 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Power_Board/Power_Board_Rev_A1_BOM.xlsx
+++ b/Power_Board/Power_Board_Rev_A1_BOM.xlsx
@@ -9,15 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="PdG" sheetId="2" r:id="rId1"/>
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="WDY_Power_Board_order" localSheetId="1">BOM!$A$1:$I$23</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,28 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="WDY_Power_Board-order" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" firstRow="4" sourceFile="C:\Users\Adrian\Documents\ExMachina\repos\eisla-electronics\WDY\Power_Board\WDY_Power_Board-order.txt">
-      <textFields count="9">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>Quantity</t>
   </si>
@@ -155,15 +132,6 @@
     <t>KEYSTONE - 3557 - FUSE CLIP, 0.8 X 2.8MM, PCB MOUNT</t>
   </si>
   <si>
-    <t>MOUNT-HOLE3.0</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>22-05-7028-02</t>
   </si>
   <si>
@@ -176,12 +144,6 @@
     <t>MOLEX - 22-05-7028 - WIRE-BOARD CONNECTOR HEADER 2 POSITION, 2.54MM</t>
   </si>
   <si>
-    <t>FIDUCIAL1X2</t>
-  </si>
-  <si>
-    <t>FIDUCIAL-1X2</t>
-  </si>
-  <si>
     <t>10uH</t>
   </si>
   <si>
@@ -239,9 +201,6 @@
     <t>58K4488</t>
   </si>
   <si>
-    <t>Multicomp Passives</t>
-  </si>
-  <si>
     <t>MC0063W060311K5</t>
   </si>
   <si>
@@ -287,18 +246,6 @@
     <t>1k5</t>
   </si>
   <si>
-    <t>TPB1,27</t>
-  </si>
-  <si>
-    <t>B1,27</t>
-  </si>
-  <si>
-    <t>EXMACHINA-LOGO-NAME</t>
-  </si>
-  <si>
-    <t>EXM-LOGO-BASELINE</t>
-  </si>
-  <si>
     <t>LT3686HDDPBF</t>
   </si>
   <si>
@@ -320,9 +267,6 @@
     <t>71C4161</t>
   </si>
   <si>
-    <t>FARNELL</t>
-  </si>
-  <si>
     <t>PHOENIX CONTACT - 1757242 - PIN HEADER, 2 POSITION, 5.08MM</t>
   </si>
   <si>
@@ -360,6 +304,36 @@
   </si>
   <si>
     <t>MCMR06X3162FTL</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>Multicomp</t>
+  </si>
+  <si>
+    <t>Keystone</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>Wurth Elektronik</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
+    <t>ST Microelectronics</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Bill Of Materials</t>
   </si>
 </sst>
 </file>
@@ -412,7 +386,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -420,6 +393,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +485,22 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="WDY_Power_Board-order" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I19" totalsRowShown="0">
+  <autoFilter ref="A1:I19"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Quantity"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Package"/>
+    <tableColumn id="4" name="Order code"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Manuf. Code"/>
+    <tableColumn id="7" name="Availability"/>
+    <tableColumn id="8" name="Price (from)"/>
+    <tableColumn id="9" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:B10"/>
+  <dimension ref="A6:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,44 +813,52 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>93</v>
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>95</v>
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>97</v>
+      <c r="A8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3">
         <f ca="1">TODAY()</f>
-        <v>42746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -873,22 +869,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="122.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -934,6 +930,9 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
@@ -960,6 +959,9 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -986,8 +988,11 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G4">
         <v>1149</v>
@@ -996,7 +1001,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1012,6 +1017,9 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
@@ -1067,6 +1075,9 @@
       <c r="D7" t="s">
         <v>33</v>
       </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
       <c r="F7">
         <v>3557</v>
       </c>
@@ -1082,134 +1093,176 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4">
+        <v>2007041</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
+      </c>
+      <c r="G8">
+        <v>283</v>
+      </c>
+      <c r="H8">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2007041</v>
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <v>74477410</v>
       </c>
       <c r="G9">
-        <v>283</v>
+        <v>103</v>
       </c>
       <c r="H9">
-        <v>0.47499999999999998</v>
+        <v>1.32</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>744774115</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>1.32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11">
-        <v>74477410</v>
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.32</v>
+        <v>0.189</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12">
-        <v>744774115</v>
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.32</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>20297</v>
       </c>
       <c r="H13">
-        <v>0.189</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1217,54 +1270,57 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>203820</v>
       </c>
       <c r="H14">
-        <v>0.20899999999999999</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="G15">
-        <v>20297</v>
+        <v>4499</v>
       </c>
       <c r="H15">
-        <v>1.2E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1272,51 +1328,57 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
-        <v>203820</v>
+        <v>27199</v>
       </c>
       <c r="H16">
         <v>2.7E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G17">
-        <v>4499</v>
+        <v>20297</v>
       </c>
       <c r="H17">
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1324,22 +1386,25 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
       </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
       <c r="F18" t="s">
         <v>76</v>
       </c>
       <c r="G18">
-        <v>27199</v>
+        <v>88</v>
       </c>
       <c r="H18">
-        <v>2.7E-2</v>
+        <v>5.16</v>
       </c>
       <c r="I18" t="s">
         <v>77</v>
@@ -1347,118 +1412,38 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>1757242</v>
       </c>
       <c r="G19">
-        <v>20297</v>
+        <v>1130</v>
       </c>
       <c r="H19">
-        <v>1.2E-2</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22">
-        <v>88</v>
-      </c>
-      <c r="H22">
-        <v>5.16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23">
-        <v>1757242</v>
-      </c>
-      <c r="G23">
-        <v>1130</v>
-      </c>
-      <c r="H23">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>